--- a/Analisi dei dati/Ferrara/Datasets/Post Processing/RQ5.xlsx
+++ b/Analisi dei dati/Ferrara/Datasets/Post Processing/RQ5.xlsx
@@ -8,25 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmi\Desktop\Tesi Magistrale\TesiFairness\Analisi dei dati\Ferrara\Datasets\Post Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97D240F-421E-443B-88EA-8F4C65F002E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF92BD4-B2C2-45A0-8E5A-67EC0FD062E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="2" r:id="rId1"/>
     <sheet name="CMM" sheetId="10" r:id="rId2"/>
+    <sheet name="Level 0" sheetId="12" r:id="rId3"/>
+    <sheet name="Level1" sheetId="13" r:id="rId4"/>
+    <sheet name="Level2" sheetId="14" r:id="rId5"/>
+    <sheet name="Level 3" sheetId="15" r:id="rId6"/>
+    <sheet name="Level 4" sheetId="16" r:id="rId7"/>
+    <sheet name="Level5" sheetId="17" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="128">
   <si>
     <t>31 - 50</t>
   </si>
@@ -404,6 +419,12 @@
   </si>
   <si>
     <t>We occasionally treat software fairness,  but related processes are disorganized and even chaotic</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Proveninece</t>
   </si>
 </sst>
 </file>
@@ -498,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
@@ -510,6 +531,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -798,7 +822,7 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3858,654 +3882,1443 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2603F6-86C8-477B-8FAE-584F40D11EBD}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B108" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B109" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B110" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B111" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>116</v>
+      </c>
+      <c r="B117" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7BE905-A109-48FD-A667-8DF4DE918662}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82E5BF7-9684-49B6-A3ED-363430B3A022}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1DE7E7-7676-4C34-8052-3A2615BC0DAA}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E29799-A4DC-4110-A5B3-0CC8F3B21BF3}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597A034D-107F-41B5-ADCE-7E7F882D4D8D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB74978-DF4B-4D21-A84B-2F050A6D49DC}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>